--- a/VersionRecords/Version 3.1.4/BS权限/新增权限配置表.xlsx
+++ b/VersionRecords/Version 3.1.4/BS权限/新增权限配置表.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlesfeng\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23025" windowHeight="6180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21855" windowHeight="5085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,8 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -77,18 +73,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>账务管理--提现管理--网商银行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>acct/queryMyBankList</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>账务管理--提现管理--网商银行--发送短信</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>acct/showList</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -101,10 +89,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>账务管理--提现管理--网商银行--确认提现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>acct/batchPayConfirm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -113,10 +97,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>账务管理--提现管理--网商银行--文件上传</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>acct/createUploadFile</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -129,10 +109,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>账务管理--提现管理--网商银行--下载明细</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>下载明细</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -141,15 +117,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>账务管理--提现管理--网商银行--显示明细</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>查询列表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>账务管理--提现管理--网商银行--查询列表</t>
+    <t>账务管理--出款管理--网商银行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账务管理--出款管理--网商银行--查询列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账务管理--出款管理--网商银行--显示明细</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账务管理--出款管理--网商银行--发送短信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账务管理--出款管理--网商银行--确认提现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账务管理--出款管理--网商银行--文件上传</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账务管理--出款管理--网商银行--下载明细</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -634,7 +630,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -679,7 +675,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>12</v>
@@ -706,13 +702,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>9</v>
@@ -732,14 +728,14 @@
       <c r="A4" s="4">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>31</v>
+      <c r="B4" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>9</v>
@@ -759,14 +755,14 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>9</v>
@@ -786,14 +782,14 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
+      <c r="B6" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>9</v>
@@ -813,14 +809,14 @@
       <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
+      <c r="B7" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
@@ -840,14 +836,14 @@
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>28</v>
+      <c r="B8" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>9</v>
